--- a/docs/source/example_workflow/example_workflow.xlsx
+++ b/docs/source/example_workflow/example_workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.feng\workspace\aind-data-schema\docs\source\example_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C1BC2F-8C5C-443A-9AC0-126C7E2274BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BBC26-EE0F-451A-812A-F72181075FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12852" yWindow="16740" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
+    <workbookView xWindow="12852" yWindow="16740" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="mice" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Emx1-IRES-Cre/wt;Camk2a-tTA/wt;Ai93(TITL-GCaMP6f)/wt</t>
-  </si>
-  <si>
-    <t>subject_id</t>
   </si>
   <si>
     <t>start_time</t>
@@ -492,7 +489,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +564,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -574,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6010C50-97DD-4D96-997F-D97184ABEB6E}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,31 +586,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,10 +624,10 @@
         <v>2109</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>2300000000</v>
@@ -638,7 +636,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>44827.431944444441</v>
@@ -654,7 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CDDD0-8926-4443-A185-F920D0C04835}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -664,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/source/example_workflow/example_workflow.xlsx
+++ b/docs/source/example_workflow/example_workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.feng\workspace\aind-data-schema\docs\source\example_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BBC26-EE0F-451A-812A-F72181075FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC260F20-EFE7-426E-9244-330DFBDC6A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12852" yWindow="16740" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="mice" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -64,15 +64,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Emx1-IRES-Cre/wt; Camk2a-tTa/Camk2a-tTA</t>
-  </si>
-  <si>
-    <t>Ai93(TITL-GCaMP6f)/wt</t>
-  </si>
-  <si>
-    <t>Emx1-IRES-Cre/wt;Camk2a-tTA/wt;Ai93(TITL-GCaMP6f)/wt</t>
-  </si>
-  <si>
     <t>start_time</t>
   </si>
   <si>
@@ -113,6 +104,18 @@
   </si>
   <si>
     <t>VISp</t>
+  </si>
+  <si>
+    <t>injection-perfusion v1</t>
+  </si>
+  <si>
+    <t>Vip-IRES-Cre/wt;Ai32(RCL-ChR2(H134R)_EYFP)/wt</t>
+  </si>
+  <si>
+    <t>Vip-IRES-Cre/wt</t>
+  </si>
+  <si>
+    <t>Ai32(RCL-ChR2(H134R)_EYFP)/Ai32(RCL-ChR2(H134R)_EYFP)</t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CE9D2B-7FC6-4284-91F9-8FE7141ABDE4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,12 +517,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1">
         <v>45413</v>
@@ -528,12 +531,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>45292</v>
@@ -542,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -553,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>45295</v>
@@ -573,61 +576,61 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>44754.291666666664</v>
       </c>
-      <c r="C2">
-        <v>2109</v>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>2300000000</v>
@@ -636,7 +639,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2">
         <v>44827.431944444441</v>
@@ -652,28 +655,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CDDD0-8926-4443-A185-F920D0C04835}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -684,7 +687,7 @@
         <v>45364.145833333336</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -695,7 +698,7 @@
         <v>45365.145833333336</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -708,5 +711,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/source/example_workflow/example_workflow.xlsx
+++ b/docs/source/example_workflow/example_workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.feng\workspace\aind-data-schema\docs\source\example_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC260F20-EFE7-426E-9244-330DFBDC6A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB5C64B-16F6-48A9-9ECD-F3E1C5015121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="mice" sheetId="1" r:id="rId1"/>
@@ -491,11 +491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CE9D2B-7FC6-4284-91F9-8FE7141ABDE4}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -525,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1">
-        <v>45413</v>
+        <v>45191</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -539,7 +542,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>45292</v>
+        <v>45184</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -559,7 +562,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="1">
-        <v>45295</v>
+        <v>45261</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -576,15 +579,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -621,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44754.291666666664</v>
+        <v>45293.291666666664</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -642,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>44827.431944444441</v>
+        <v>45322.431944444441</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6CDDD0-8926-4443-A185-F920D0C04835}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +687,7 @@
         <v>45364.125</v>
       </c>
       <c r="C2" s="2">
-        <v>45364.145833333336</v>
+        <v>45317.145833333336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +698,7 @@
         <v>45365.125</v>
       </c>
       <c r="C3" s="2">
-        <v>45365.145833333336</v>
+        <v>45318.145833333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,7 +709,7 @@
         <v>45366.125</v>
       </c>
       <c r="C4" s="2">
-        <v>45366.145833333336</v>
+        <v>45319.145833333336</v>
       </c>
     </row>
   </sheetData>

--- a/docs/source/example_workflow/example_workflow.xlsx
+++ b/docs/source/example_workflow/example_workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.feng\workspace\aind-data-schema\docs\source\example_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB5C64B-16F6-48A9-9ECD-F3E1C5015121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41E1EF-58ED-4979-84FD-7B3AEEB1E4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45364.125</v>
+        <v>45317.125</v>
       </c>
       <c r="C2" s="2">
         <v>45317.145833333336</v>
@@ -695,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>45365.125</v>
+        <v>45318.125</v>
       </c>
       <c r="C3" s="2">
         <v>45318.145833333336</v>
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45366.125</v>
+        <v>45319.125</v>
       </c>
       <c r="C4" s="2">
         <v>45319.145833333336</v>

--- a/docs/source/example_workflow/example_workflow.xlsx
+++ b/docs/source/example_workflow/example_workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.feng\workspace\aind-data-schema\docs\source\example_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41E1EF-58ED-4979-84FD-7B3AEEB1E4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C88B7-7858-4343-BC71-3ADE0B6C5922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{1A5E85E2-7656-41D6-9492-B778EB344F3F}"/>
   </bookViews>
@@ -659,12 +659,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45317.125</v>
+        <v>45317.625</v>
       </c>
       <c r="C2" s="2">
-        <v>45317.145833333336</v>
+        <v>45317.645833333336</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>45318.125</v>
+        <v>45318.625</v>
       </c>
       <c r="C3" s="2">
-        <v>45318.145833333336</v>
+        <v>45318.645833333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45319.125</v>
+        <v>45319.625</v>
       </c>
       <c r="C4" s="2">
-        <v>45319.145833333336</v>
+        <v>45319.645833333336</v>
       </c>
     </row>
   </sheetData>
